--- a/biology/Botanique/Agathosma/Agathosma.xlsx
+++ b/biology/Botanique/Agathosma/Agathosma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathosma est un genre d'environ 135 espèces de plantes à fleurs de la famille des Rutacées, originaire de la partie sud de l'Afrique. 
 Ce sont de petits arbustes à tiges ligneuses dressées atteignant 30 cm à 1 m de haut, mais à croissance lente et à forme rampante chez certaines espèces. Les feuilles sont généralement opposées, éricoïdes (ressemblant aux feuilles de bruyères), souvent abondantes, simples, entières, de 0,5 à 3,5 cm de long. Les fleurs, regroupées en grappes terminales, mesurent de 0,7 à 2 cm de diamètre, avec cinq pétales blanc, rose, rouge ou pourpre.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Agathosma betulina (Bergius) Pill.
@@ -546,7 +560,9 @@
           <t>Espèces sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
